--- a/biology/Botanique/Milgranet/Milgranet.xlsx
+++ b/biology/Botanique/Milgranet/Milgranet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Milgranet N est un cépage cultivé en France.
@@ -512,10 +524,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il pourrait provenir de la moyenne vallée de la Garonne (Tarn-et-Garonne) ou du Tarn[1].
-C'est un cépage en voie de disparition, passé de 290 hectares en 1958, à 6 en 1994[2]. Il est répertorié dans l'encépagement de l'AOVDQS de Lavilledieu.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pourrait provenir de la moyenne vallée de la Garonne (Tarn-et-Garonne) ou du Tarn.
+C'est un cépage en voie de disparition, passé de 290 hectares en 1958, à 6 en 1994. Il est répertorié dans l'encépagement de l'AOVDQS de Lavilledieu.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bourgeonnement est cotonneux et les jeunes feuilles sont vertes à reflets bronzés.
 Les feuilles adultes sont quinquelobées, avec sinus pétiolaire ouvert en V et sinus latéraux ouverts. Le limbe et parfois gaufré et bordé de dentelures moyennes droites.
@@ -579,12 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Culturales
-Il a besoin de terrains bien alimentés en eau. Son port lâche nécessite une palissage.
-Sensibilité aux maladies
-Il craint principalement l'oïdium.
-Technologiques
-Le milgranet  donne des vins à petit degré alcoolique, acides et astringents.
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a besoin de terrains bien alimentés en eau. Son port lâche nécessite une palissage.
 </t>
         </is>
       </c>
@@ -610,10 +627,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il craint principalement l'oïdium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Milgranet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Milgranet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Technologiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le milgranet  donne des vins à petit degré alcoolique, acides et astringents.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Milgranet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Milgranet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
